--- a/汽柴煤油2.0/eta/石脑油价格_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/石脑油价格_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>530.241</v>
+        <v>665.7211</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>567.1413</v>
+        <v>568.5011</v>
       </c>
       <c r="C3" t="n">
-        <v>568.824</v>
+        <v>581.4991</v>
       </c>
     </row>
     <row r="4">
